--- a/data/template_strobe.xlsx
+++ b/data/template_strobe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/checklist/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D13EA2-78D8-4568-8229-04F0B0B4B113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{20D13EA2-78D8-4568-8229-04F0B0B4B113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F902E082-EC07-449A-BE35-AD9F36615043}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5657D77E-440B-4222-BD92-C2DDBCD946C5}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>section</t>
   </si>
   <si>
-    <t>item_number</t>
-  </si>
-  <si>
-    <t>item_text</t>
-  </si>
-  <si>
     <t>item_full_text</t>
   </si>
   <si>
@@ -98,241 +92,226 @@
     <t>Title and abstract</t>
   </si>
   <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>Indicate the study's design</t>
-  </si>
-  <si>
     <t>Indicate the study’s design with a commonly used term in the title or the abstract</t>
   </si>
   <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>Provide a balanced summary</t>
-  </si>
-  <si>
     <t>Provide in the abstract an informative and balanced summary of what was done and what was found</t>
   </si>
   <si>
     <t>Introduction</t>
   </si>
   <si>
-    <t>Background/rationale</t>
-  </si>
-  <si>
     <t>Explain the scientific background and rationale for the investigation being reported</t>
   </si>
   <si>
-    <t>Objectives</t>
-  </si>
-  <si>
     <t>State specific objectives, including any prespecified hypotheses</t>
   </si>
   <si>
     <t>Methods</t>
   </si>
   <si>
-    <t>Study design</t>
-  </si>
-  <si>
     <t>Present key elements of study design early in the paper</t>
   </si>
   <si>
-    <t>Setting</t>
-  </si>
-  <si>
     <t>Describe the setting, locations, and relevant dates, including periods of recruitment, exposure, follow-up, and data collection</t>
   </si>
   <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
     <t>Give the eligibility criteria, and the sources and methods of selection of participants. Describe methods of follow-up</t>
   </si>
   <si>
-    <t>6b</t>
-  </si>
-  <si>
     <t>For matched studies, give matching criteria and number of exposed and unexposed</t>
   </si>
   <si>
-    <t>Variables</t>
-  </si>
-  <si>
     <t>Clearly define all outcomes, exposures, predictors, potential confounders, and effect modifiers. Give diagnostic criteria, if applicable</t>
   </si>
   <si>
-    <t>Data sources/ measurement</t>
-  </si>
-  <si>
     <t>For each variable of interest, give sources of data and details of methods of assessment (measurement). Describe comparability of assessment methods if there is more than one group</t>
   </si>
   <si>
-    <t>Bias</t>
-  </si>
-  <si>
     <t>Describe any efforts to address potential sources of bias</t>
   </si>
   <si>
-    <t>Study size</t>
-  </si>
-  <si>
     <t>Explain how the study size was arrived at</t>
   </si>
   <si>
-    <t>Quantitative variables</t>
-  </si>
-  <si>
     <t>Explain how quantitative variables were handled in the analyses. If applicable, describe which groupings were chosen and why</t>
   </si>
   <si>
-    <t>12a</t>
-  </si>
-  <si>
-    <t>Statistical methods</t>
-  </si>
-  <si>
     <t>Describe all statistical methods, including those used to control for confounding</t>
   </si>
   <si>
-    <t>12b</t>
-  </si>
-  <si>
     <t>Describe any methods used to examine subgroups and interactions</t>
   </si>
   <si>
-    <t>12c</t>
-  </si>
-  <si>
     <t>Explain how missing data were addressed</t>
   </si>
   <si>
-    <t>12d</t>
-  </si>
-  <si>
     <t>If applicable, explain how loss to follow-up was addressed</t>
   </si>
   <si>
-    <t>12e</t>
-  </si>
-  <si>
     <t>Describe any sensitivity analyses</t>
   </si>
   <si>
     <t>Results</t>
   </si>
   <si>
-    <t>13a</t>
-  </si>
-  <si>
     <t>Report numbers of individuals at each stage of study—eg numbers potentially eligible, examined for eligibility, confirmed eligible, included in the study, completing follow-up, and analysed</t>
   </si>
   <si>
-    <t>13b</t>
-  </si>
-  <si>
     <t>Give reasons for non-participation at each stage</t>
   </si>
   <si>
-    <t>13c</t>
-  </si>
-  <si>
     <t>Consider use of a flow diagram</t>
   </si>
   <si>
-    <t>14a</t>
-  </si>
-  <si>
-    <t>Descriptive data</t>
-  </si>
-  <si>
     <t>Give characteristics of study participants (eg demographic, clinical, social) and information on exposures and potential confounders</t>
   </si>
   <si>
-    <t>14b</t>
-  </si>
-  <si>
     <t>Indicate number of participants with missing data for each variable of interest</t>
   </si>
   <si>
-    <t>14c</t>
-  </si>
-  <si>
     <t>Summarise follow-up time (eg, average and total amount)</t>
   </si>
   <si>
-    <t>Outcome data</t>
-  </si>
-  <si>
     <t>Report numbers of outcome events or summary measures over time</t>
   </si>
   <si>
-    <t>16a</t>
-  </si>
-  <si>
-    <t>Main results</t>
-  </si>
-  <si>
     <t>Give unadjusted estimates and, if applicable, confounder-adjusted estimates and their precision (eg, 95% confidence interval). Make clear which confounders were adjusted for and why they were included</t>
   </si>
   <si>
-    <t>16b</t>
-  </si>
-  <si>
     <t>Report category boundaries when continuous variables were categorized</t>
   </si>
   <si>
-    <t>16c</t>
-  </si>
-  <si>
     <t>If relevant, consider translating estimates of relative risk into absolute risk for a meaningful time period</t>
   </si>
   <si>
-    <t>Other analyses</t>
-  </si>
-  <si>
     <t>Report other analyses done—eg analyses of subgroups and interactions, and sensitivity analyses</t>
   </si>
   <si>
     <t>Discussion</t>
   </si>
   <si>
-    <t>Key results</t>
-  </si>
-  <si>
     <t>Summarise key results with reference to study objectives</t>
   </si>
   <si>
-    <t>Limitations</t>
-  </si>
-  <si>
     <t>Discuss limitations of the study, taking into account sources of potential bias or imprecision. Discuss both direction and magnitude of any potential bias</t>
   </si>
   <si>
-    <t>Interpretation</t>
-  </si>
-  <si>
     <t>Give a cautious overall interpretation of results considering objectives, limitations, multiplicity of analyses, results from similar studies, and other relevant evidence</t>
   </si>
   <si>
-    <t>Generalisability</t>
-  </si>
-  <si>
     <t>Discuss the generalisability (external validity) of the study results</t>
   </si>
   <si>
     <t>Other information</t>
   </si>
   <si>
-    <t>Funding</t>
-  </si>
-  <si>
     <t>Give the source of funding and the role of the funders for the present study and, if applicable, for the original study on which the present article is based</t>
+  </si>
+  <si>
+    <t>1a. Indicate the study's design</t>
+  </si>
+  <si>
+    <t>1b. Provide a balanced summary</t>
+  </si>
+  <si>
+    <t>2. Background/rationale</t>
+  </si>
+  <si>
+    <t>3. Objectives</t>
+  </si>
+  <si>
+    <t>4. Study design</t>
+  </si>
+  <si>
+    <t>5. Setting</t>
+  </si>
+  <si>
+    <t>6a. Participants</t>
+  </si>
+  <si>
+    <t>6b. Participants</t>
+  </si>
+  <si>
+    <t>7. Variables</t>
+  </si>
+  <si>
+    <t>8. Data sources/ measurement</t>
+  </si>
+  <si>
+    <t>9. Bias</t>
+  </si>
+  <si>
+    <t>11. Quantitative variables</t>
+  </si>
+  <si>
+    <t>12a. Statistical methods</t>
+  </si>
+  <si>
+    <t>12b. Statistical methods</t>
+  </si>
+  <si>
+    <t>12c. Statistical methods</t>
+  </si>
+  <si>
+    <t>12d. Statistical methods</t>
+  </si>
+  <si>
+    <t>12e. Statistical methods</t>
+  </si>
+  <si>
+    <t>13a. Participants</t>
+  </si>
+  <si>
+    <t>13b. Participants</t>
+  </si>
+  <si>
+    <t>13c. Participants</t>
+  </si>
+  <si>
+    <t>14a. Descriptive data</t>
+  </si>
+  <si>
+    <t>14b. Descriptive data</t>
+  </si>
+  <si>
+    <t>14c. Descriptive data</t>
+  </si>
+  <si>
+    <t>15. Outcome data</t>
+  </si>
+  <si>
+    <t>16a. Main results</t>
+  </si>
+  <si>
+    <t>16b. Main results</t>
+  </si>
+  <si>
+    <t>16c. Main results</t>
+  </si>
+  <si>
+    <t>17. Other analyses</t>
+  </si>
+  <si>
+    <t>18. Key results</t>
+  </si>
+  <si>
+    <t>19. Limitations</t>
+  </si>
+  <si>
+    <t>20. Interpretation</t>
+  </si>
+  <si>
+    <t>21. Generalisability</t>
+  </si>
+  <si>
+    <t>22. Funding</t>
+  </si>
+  <si>
+    <t>checklist_item</t>
+  </si>
+  <si>
+    <t>10. Study size</t>
   </si>
 </sst>
 </file>
@@ -684,553 +663,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0AC2C-87EC-4E8E-8E26-B7BA52AEF2A5}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="187.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="187.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30">
-        <v>17</v>
-      </c>
       <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="B31">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35">
-        <v>22</v>
-      </c>
       <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
